--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3776604.436479264</v>
+        <v>3772271.951658572</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10087461.63830379</v>
+        <v>10087461.6383038</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283195</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7714591.370650209</v>
+        <v>7714591.370650208</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,10 +673,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>228.8084279408898</v>
+        <v>294.9449434014383</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,13 +715,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>134.0618870358387</v>
       </c>
       <c r="Y4" t="n">
-        <v>94.63926978364032</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>311.4548724584504</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>90.53841902918157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>129.744333870176</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>152.6509495310452</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>212.1370054753146</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>266.1512514744993</v>
       </c>
     </row>
     <row r="9">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>56.58072854101226</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>239.5185571033092</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576167</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>53.07327741456131</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>37.40501058442985</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>65.67353929277157</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569556</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T24" t="n">
         <v>188.3046392154443</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
-        <v>83.06560892427576</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012194</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569556</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T27" t="n">
         <v>188.3046392154443</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012194</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>152.6628237007877</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,13 +3009,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>132.5039425933953</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>72.2376664596877</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>67.96386702300485</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>75.08886905994775</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>127.0078463455642</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>143.4157347120537</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1130.934501327943</v>
+        <v>512.2786438284563</v>
       </c>
       <c r="C2" t="n">
-        <v>1130.934501327943</v>
+        <v>512.2786438284563</v>
       </c>
       <c r="D2" t="n">
-        <v>772.6688027211924</v>
+        <v>512.2786438284563</v>
       </c>
       <c r="E2" t="n">
-        <v>772.6688027211924</v>
+        <v>512.2786438284563</v>
       </c>
       <c r="F2" t="n">
-        <v>765.7233019719889</v>
+        <v>505.3331430792529</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1894.539591564834</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1521.073833303755</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1130.934501327943</v>
+        <v>898.8784838925781</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4521,19 +4521,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>149.5382038240415</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>149.5382038240415</v>
+        <v>592.7129366954861</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>371.9203575519559</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1583.3782753568</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1214.415758416388</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>856.1500598096375</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>856.1500598096375</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>849.204559060434</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4582,37 +4582,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>1936.146930626914</v>
       </c>
       <c r="W5" t="n">
-        <v>2443.387305656314</v>
+        <v>1583.3782753568</v>
       </c>
       <c r="X5" t="n">
-        <v>2069.921547395234</v>
+        <v>1583.3782753568</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1583.3782753568</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600564</v>
+        <v>546.4805193761948</v>
       </c>
       <c r="C7" t="n">
-        <v>698.7120650600564</v>
+        <v>377.5443364482879</v>
       </c>
       <c r="D7" t="n">
-        <v>548.5954256477206</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="E7" t="n">
-        <v>400.6823320653275</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F7" t="n">
-        <v>253.7923845674171</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,7 +4734,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
         <v>529.6040388502502</v>
@@ -4743,34 +4743,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1250.638474227114</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1250.638474227114</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1250.638474227114</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4825,7 +4825,7 @@
         <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W8" t="n">
-        <v>1640.777806202926</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="X8" t="n">
-        <v>1640.777806202926</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="Y8" t="n">
-        <v>1250.638474227114</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4889,19 +4889,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047577</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>295.8809182883535</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="11">
@@ -5044,7 +5044,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5123,22 +5123,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5181,19 +5181,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5266,7 +5266,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5363,22 +5363,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2515.675093211831</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2393.353712454441</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2210.498878109345</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1990.897413132287</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1701.822186476484</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1447.137698270597</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1157.720528233637</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>929.7309773356195</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>929.7309773356195</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5506,28 +5506,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5597,22 +5597,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517212</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2252.221377756499</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5831,25 +5831,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1520.445529061503</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>2072.35525930079</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2495.978408795858</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2380.626175203724</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2091.550948547922</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1836.866460342035</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1547.449290305074</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192549</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111699</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075775</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332399</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014789</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355944</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068015</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6053,43 +6053,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756259</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756259</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>738.788911791383</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417933</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211824</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P24" t="n">
-        <v>2515.675093211824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400653</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121584</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>261.012762333092</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>261.012762333092</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>261.012762333092</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038332</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797725</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832657</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487561</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510502</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.3858538547</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648813</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611853</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138352</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.502065570305</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551898</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611487</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004737</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406492</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168848</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797234</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638196413</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311209</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611076162</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.61155333242</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301481</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355966</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068036</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694732</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.26572885228</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398617</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492602</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474807</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466597</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123026</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852912</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591832</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.37586661602</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6281,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778471</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967201</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354688</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300134</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568984</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028062</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797234</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797234</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468459</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962603</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266885</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.15155782149</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6338,16 +6338,16 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>2016.615714228346</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
         <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>1527.226249268402</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.374749062869</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
         <v>1111.614450297915</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3112.53743214741</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>2943.601249219503</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>2793.484609807167</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>2793.484609807167</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>2646.594662309257</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024137</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866335</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866335</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296658</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822196</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998135</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729169</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389177</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098161</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671719</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398617</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448651019</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305923</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4286.727741880885</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3997.652515225083</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3742.968027019197</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3742.968027019197</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3514.978476121179</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3294.185896977649</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6545,22 +6545,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>251.562654109227</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>746.8882603249857</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3173.601046153952</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3999.301626420637</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3709.884456383676</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3576.042090127722</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3355.249510984192</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6694,10 +6694,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6709,13 +6709,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6782,19 +6782,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>950.7540666811333</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>781.8178837532264</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1904.493740652238</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1649.809252446351</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1360.39208240939</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1132.402531511373</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1132.402531511373</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,10 +6952,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -7019,22 +7019,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7140,7 +7140,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>847.6442739835331</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,37 +7165,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7256,19 +7256,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
         <v>2319.799627685893</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>847.644273983533</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>847.644273983533</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1068.436853127063</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>847.644273983533</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,19 +7399,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7420,10 +7420,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7493,22 +7493,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.0191461778176</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2251.626625948255</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2251.626625948255</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1962.551399292452</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1707.866911086565</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1418.449741049605</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1190.460190151587</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>969.6676110080573</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7651,16 +7651,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7736,19 +7736,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>550.637687073287</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
         <v>402.7245934908939</v>
@@ -7842,16 +7842,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028829</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8473,7 +8473,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1.750777300912887e-11</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>127.7255247667966</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>13.30196929556038</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>111.2104624337825</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>151.7319110345167</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
-        <v>65.54986409393659</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185657</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185657</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>64.74262662650062</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>93.20571279564186</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>213.9468079295564</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.6207863290899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>150.6207863290894</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>54.01843965608035</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>36.41624546988359</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>649986.8875070913</v>
+        <v>649986.8875070912</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>649986.8875070913</v>
+        <v>649986.8875070912</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>649986.8875070913</v>
+        <v>649986.8875070912</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>649986.887507091</v>
+        <v>649986.8875070912</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>649986.8875070913</v>
+        <v>649986.8875070912</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>649986.8875070913</v>
+        <v>649986.8875070912</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>649986.8875070913</v>
+        <v>649986.8875070912</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>649986.8875070913</v>
+        <v>649986.8875070912</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>649986.8875070913</v>
+        <v>649986.8875070912</v>
       </c>
     </row>
   </sheetData>
@@ -26322,37 +26322,37 @@
         <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="F2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="G2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="H2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="I2" t="n">
         <v>766789.2697055057</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="L2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="M2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="G2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="H2" t="n">
-        <v>766789.2697055062</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.2697055055</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055056</v>
-      </c>
-      <c r="K2" t="n">
-        <v>766789.2697055056</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.2697055056</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>766789.269705506</v>
       </c>
-      <c r="N2" t="n">
-        <v>766789.2697055059</v>
-      </c>
       <c r="O2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="P2" t="n">
         <v>766789.269705506</v>
@@ -26380,19 +26380,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.60042306972432e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-7.295076287603783e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925944</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>7.959379217936656e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,25 +26426,25 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670411</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="F4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="H4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="I4" t="n">
-        <v>5067.592601670681</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670434</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="L4" t="n">
         <v>5067.592601670437</v>
@@ -26453,7 +26453,7 @@
         <v>5067.592601670437</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="O4" t="n">
         <v>5067.592601670437</v>
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26493,7 +26493,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239074</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-93901.7818346165</v>
+        <v>-93901.78183461647</v>
       </c>
       <c r="C6" t="n">
+        <v>496066.0973799279</v>
+      </c>
+      <c r="D6" t="n">
         <v>496066.097379928</v>
       </c>
-      <c r="D6" t="n">
-        <v>496066.0973799281</v>
-      </c>
       <c r="E6" t="n">
-        <v>-283773.6304777807</v>
+        <v>-284121.0097321374</v>
       </c>
       <c r="F6" t="n">
-        <v>660599.1472799283</v>
+        <v>660251.7680255715</v>
       </c>
       <c r="G6" t="n">
-        <v>660599.1472799284</v>
+        <v>660251.7680255714</v>
       </c>
       <c r="H6" t="n">
-        <v>660599.1472799287</v>
+        <v>660251.7680255714</v>
       </c>
       <c r="I6" t="n">
-        <v>660599.1472799302</v>
+        <v>660251.7680255712</v>
       </c>
       <c r="J6" t="n">
-        <v>484175.9280873333</v>
+        <v>483828.5488329784</v>
       </c>
       <c r="K6" t="n">
-        <v>660599.1472799273</v>
+        <v>660251.7680255715</v>
       </c>
       <c r="L6" t="n">
-        <v>660599.1472799281</v>
+        <v>660251.7680255716</v>
       </c>
       <c r="M6" t="n">
-        <v>536390.6365718701</v>
+        <v>536043.2573175129</v>
       </c>
       <c r="N6" t="n">
-        <v>660599.1472799283</v>
+        <v>660251.7680255716</v>
       </c>
       <c r="O6" t="n">
-        <v>660599.1472799284</v>
+        <v>660251.7680255712</v>
       </c>
       <c r="P6" t="n">
-        <v>660599.1472799286</v>
+        <v>660251.7680255716</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26758,10 +26758,10 @@
         <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="J3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="K3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26810,10 +26810,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099654</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26980,13 +26980,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.930905432256835e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3.183231456205249e-12</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26995,10 +26995,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545613</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>184.9757420799052</v>
+        <v>118.8392266193567</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,13 +27435,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27593,19 +27593,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>91.6477683531985</v>
       </c>
       <c r="Y4" t="n">
-        <v>123.9453835684545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>102.3292975623445</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>295.699519626872</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>18.87113914803635</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>14.65885272800574</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>169.7933645969472</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>120.0866871815543</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>92.03474447720009</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>47.00444123328182</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-5.844418180573881e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,7 +31284,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31293,34 +31293,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,40 +31357,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31399,7 +31399,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31843,25 +31843,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32083,7 +32083,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32098,10 +32098,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>140.7358547888808</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32317,13 +32317,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32332,10 +32332,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>437.8531046913764</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32551,7 +32551,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32563,16 +32563,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>197.6412480909884</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420748</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473057</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862103</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071767</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437227</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q24" t="n">
-        <v>140.7358547888886</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418556</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420748</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422575</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473057</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>446.0127311990707</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071767</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437227</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33280,10 +33280,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33502,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33511,13 +33511,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>171.7382405950817</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33739,10 +33739,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N39" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34213,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34222,16 +34222,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34456,22 +34456,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34941,22 +34941,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35193,7 +35193,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35731,7 +35731,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35746,10 +35746,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.7540807028592577</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35965,13 +35965,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35980,10 +35980,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>303.8786972770462</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36211,16 +36211,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.65947400496688</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396409</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367754</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462844</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754081</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674315</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.412613764192</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238434</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992783</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.7540807028670664</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789168</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096342</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367754</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754081</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678985</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674315</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>303.8786972770524</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238434</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992783</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096342</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36928,10 +36928,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37150,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37159,13 +37159,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>37.7638331807514</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37323,7 +37323,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37387,10 +37387,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N39" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37870,16 +37870,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3772271.951658572</v>
+        <v>3774032.481961357</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>22.35153719005479</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>134.0618870358387</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>311.4548724584504</v>
+        <v>153.6519141964168</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>129.744333870176</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>133.9566202902067</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1183,25 +1183,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>92.78478400245945</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>266.1512514744993</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>56.58072854101226</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>205.1478855987998</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>104.8913819999782</v>
+        <v>36.43062059490504</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695527</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881291</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>120.7871326503968</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>72.26558381699921</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>133.3722917337063</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4330,10 +4330,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>592.7129366954861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>371.9203575519559</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1583.3782753568</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="C5" t="n">
-        <v>1214.415758416388</v>
+        <v>1159.387068946881</v>
       </c>
       <c r="D5" t="n">
-        <v>856.1500598096375</v>
+        <v>1159.387068946881</v>
       </c>
       <c r="E5" t="n">
-        <v>856.1500598096375</v>
+        <v>773.5988163486368</v>
       </c>
       <c r="F5" t="n">
-        <v>849.204559060434</v>
+        <v>362.6129115590292</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4582,7 +4582,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
         <v>2544.691559791253</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626914</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.3782753568</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="X5" t="n">
-        <v>1583.3782753568</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="Y5" t="n">
-        <v>1583.3782753568</v>
+        <v>1528.349585887293</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,16 +4646,16 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761948</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="C7" t="n">
-        <v>377.5443364482879</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="D7" t="n">
-        <v>246.4894537511404</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511404</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323009</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323009</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323009</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323009</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036446</v>
@@ -4734,7 +4734,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
         <v>529.6040388502502</v>
@@ -4743,34 +4743,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064346</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064346</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064346</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064346</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064346</v>
+        <v>563.4023475952011</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
@@ -4804,7 +4804,7 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4816,7 +4816,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2548.398397505828</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834949</v>
+        <v>2294.636612143919</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834949</v>
+        <v>1963.573724800349</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834949</v>
+        <v>1610.805069530235</v>
       </c>
       <c r="X8" t="n">
-        <v>2247.308246834949</v>
+        <v>1237.339311269155</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>847.1999792933431</v>
       </c>
     </row>
     <row r="9">
@@ -4889,10 +4889,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.6879402326646</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>156.7517573047577</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -5007,7 +5007,7 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629043</v>
+        <v>520.9088977430002</v>
       </c>
     </row>
     <row r="11">
@@ -5032,28 +5032,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5080,10 +5080,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5260,40 +5260,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>542.9134462654469</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400712</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E16" t="n">
         <v>407.9027098310023</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="17">
@@ -5506,31 +5506,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>391.8463960427007</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D22" t="n">
-        <v>241.729756630365</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797187</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6126,22 +6126,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,10 +6241,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6308,22 +6308,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2222.001901828445</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6466,16 +6466,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6545,19 +6545,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O30" t="n">
-        <v>2222.001901828445</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6615,7 +6615,7 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6691,16 +6691,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6709,19 +6709,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828445</v>
+        <v>2253.988764961267</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7019,19 +7019,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="41">
@@ -7393,22 +7393,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7493,16 +7493,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7651,16 +7651,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7730,25 +7730,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7842,16 +7842,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9238900028829</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8537,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>41.54258064659096</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347514</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>213.9188905722449</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>649986.8875070912</v>
+        <v>649986.8875070913</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>649986.8875070912</v>
+        <v>649986.8875070913</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>649986.8875070913</v>
+        <v>649986.8875070912</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>649986.8875070912</v>
+        <v>649986.8875070913</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>649986.8875070912</v>
+        <v>649986.8875070913</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779989.6813710688</v>
+      </c>
+      <c r="C2" t="n">
+        <v>779989.6813710688</v>
+      </c>
+      <c r="D2" t="n">
         <v>779989.6813710689</v>
       </c>
-      <c r="C2" t="n">
-        <v>779989.6813710689</v>
-      </c>
-      <c r="D2" t="n">
-        <v>779989.681371069</v>
-      </c>
       <c r="E2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="G2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="H2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055063</v>
       </c>
       <c r="I2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="J2" t="n">
         <v>766789.2697055057</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055059</v>
       </c>
       <c r="K2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="L2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="M2" t="n">
         <v>766789.269705506</v>
       </c>
-      <c r="M2" t="n">
-        <v>766789.2697055058</v>
-      </c>
       <c r="N2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055055</v>
       </c>
       <c r="O2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="P2" t="n">
         <v>766789.2697055057</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766789.269705506</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577088</v>
+        <v>944372.7777577089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080583</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,25 +26429,25 @@
         <v>5067.592601670437</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670418</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670418</v>
       </c>
       <c r="H4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="I4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="J4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="K4" t="n">
+        <v>5067.592601670437</v>
+      </c>
+      <c r="L4" t="n">
         <v>5067.592601670438</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5067.592601670437</v>
       </c>
       <c r="M4" t="n">
         <v>5067.592601670437</v>
@@ -26472,7 +26472,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340947</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-93901.78183461647</v>
+        <v>-93901.7818346167</v>
       </c>
       <c r="C6" t="n">
+        <v>496066.0973799278</v>
+      </c>
+      <c r="D6" t="n">
         <v>496066.0973799279</v>
       </c>
-      <c r="D6" t="n">
-        <v>496066.097379928</v>
-      </c>
       <c r="E6" t="n">
-        <v>-284121.0097321374</v>
+        <v>-283808.3684032165</v>
       </c>
       <c r="F6" t="n">
-        <v>660251.7680255715</v>
+        <v>660564.4093544926</v>
       </c>
       <c r="G6" t="n">
-        <v>660251.7680255714</v>
+        <v>660564.4093544927</v>
       </c>
       <c r="H6" t="n">
-        <v>660251.7680255714</v>
+        <v>660564.4093544931</v>
       </c>
       <c r="I6" t="n">
-        <v>660251.7680255712</v>
+        <v>660564.409354493</v>
       </c>
       <c r="J6" t="n">
-        <v>483828.5488329784</v>
+        <v>484141.1901618994</v>
       </c>
       <c r="K6" t="n">
-        <v>660251.7680255715</v>
+        <v>660564.4093544928</v>
       </c>
       <c r="L6" t="n">
-        <v>660251.7680255716</v>
+        <v>660564.4093544929</v>
       </c>
       <c r="M6" t="n">
-        <v>536043.2573175129</v>
+        <v>536355.8986464347</v>
       </c>
       <c r="N6" t="n">
-        <v>660251.7680255716</v>
+        <v>660564.4093544923</v>
       </c>
       <c r="O6" t="n">
-        <v>660251.7680255712</v>
+        <v>660564.4093544928</v>
       </c>
       <c r="P6" t="n">
-        <v>660251.7680255716</v>
+        <v>660564.4093544926</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245871</v>
+        <v>990.2318361245873</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>202.6835682680295</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>91.6477683531985</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>102.3292975623445</v>
+        <v>260.1322558243781</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>18.87113914803635</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>152.3252539517711</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>123.6635363551983</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>120.0866871815543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>92.03474447720009</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>13.43676775329496</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,7 +31284,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31293,34 +31293,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,40 +31357,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31399,7 +31399,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>441.0292693655512</v>
+        <v>513.0745614164387</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>154.5219885631796</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N21" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32800,13 +32800,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33028,25 +33028,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,13 +33274,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>468.3778278510275</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>468.3778278510275</v>
+        <v>436.0678650906011</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>381.6404378718165</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33748,13 +33748,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -34213,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>570.6116741576916</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>333.9544784328825</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34471,7 +34471,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,22 +34941,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35257,13 +35257,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>302.474889585677</v>
+        <v>374.5201816365645</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N21" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36448,13 +36448,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>334.4034204366973</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,19 +37153,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>334.4034204366973</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37323,7 +37323,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>243.7989988974575</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37396,13 +37396,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38098,19 +38098,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>432.0572943778175</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>191.358233988438</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
@@ -38119,7 +38119,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
